--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_2_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_2_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.125701419138308e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.128562159720617e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0308467551830367</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.11085765068216</v>
+        <v>46.3600891046285</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.54533098329197, 51.676384318072344]</t>
+          <t>[42.706687112084275, 50.013491097172725]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.440289725069194, 1.591237119836272]</t>
+          <t>[1.452868674633117, 1.628973968528041]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.94291953130718</v>
+        <v>54.07957996612102</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.53647951848464, 54.349359544129726]</t>
+          <t>[51.579500727986144, 56.57965920425589]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.89309309309344</v>
+        <v>18.86886886886922</v>
       </c>
       <c r="X2" t="n">
-        <v>18.59399399399433</v>
+        <v>18.51851851851887</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.19219219219254</v>
+        <v>19.21921921921958</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.21000000000035</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.125701419138308e-16</v>
+        <v>1.128562159720617e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.24586757775639</v>
+        <v>48.57858145615877</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[45.33002752602837, 55.16170762948442]</t>
+          <t>[44.13285318168667, 53.02430973063086]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6352369529781168</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5346053564667326, 0.735868549489501]</t>
+          <t>[0.2830263651882694, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>53.49855250761927</v>
+        <v>49.55057264073593</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.90860526554972, 56.08849974968883]</t>
+          <t>[47.062273390142074, 52.038871891329784]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.76234234234265</v>
+        <v>22.59199199199229</v>
       </c>
       <c r="X3" t="n">
-        <v>21.3745945945949</v>
+        <v>22.25551551551581</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.1500900900904</v>
+        <v>22.92846846846877</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_2_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_2_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.00000000000047</v>
+        <v>25.12000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.128562159720617e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0308467551830367</v>
-      </c>
+        <v>1.144559819201192e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.3600891046285</v>
+        <v>45.75037607540074</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.706687112084275, 50.013491097172725]</t>
+          <t>[42.193521410689904, 49.307230740111585]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.628973968528041]</t>
+          <t>[1.490605523324886, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.07957996612102</v>
+        <v>51.65396011769388</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.579500727986144, 56.57965920425589]</t>
+          <t>[49.17738590025203, 54.13053433513573]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.86886886886922</v>
+        <v>18.80856856856894</v>
       </c>
       <c r="X2" t="n">
-        <v>18.51851851851887</v>
+        <v>18.4565365365369</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.21921921921958</v>
+        <v>19.16060060060098</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.01000000000031</v>
+        <v>24.24000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.128562159720617e-16</v>
+        <v>1.144559819201192e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.57858145615877</v>
+        <v>46.93807751970596</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.13285318168667, 53.02430973063086]</t>
+          <t>[42.1557675172264, 51.720387522185526]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.6226580034141938</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 0.45913165908319353]</t>
+          <t>[0.5220264069028087, 0.7232895999255788]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.55057264073593</v>
+        <v>52.01277407723175</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.062273390142074, 52.038871891329784]</t>
+          <t>[49.53303230277456, 54.492515851688935]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.59199199199229</v>
+        <v>21.83783783783815</v>
       </c>
       <c r="X3" t="n">
-        <v>22.25551551551581</v>
+        <v>21.44960960960992</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.92846846846877</v>
+        <v>22.22606606606639</v>
       </c>
     </row>
   </sheetData>
